--- a/data/long_dif/P19_1-Estudios-long_dif.xlsx
+++ b/data/long_dif/P19_1-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 31,41</t>
+          <t>13,72; 49,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 38,39</t>
+          <t>20,87; 40,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,74; 33,79</t>
+          <t>17,33; 31,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 37,09</t>
+          <t>21,63; 40,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 34,87</t>
+          <t>22,04; 41,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,18; 36,34</t>
+          <t>17,85; 35,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,01; 31,49</t>
+          <t>25,78; 37,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 33,56</t>
+          <t>18,52; 35,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 32,56</t>
+          <t>21,59; 40,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,28; 34,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 32,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 34,7</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>43,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,89; 61,99</t>
+          <t>24,97; 48,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,73; 64,01</t>
+          <t>39,09; 66,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 50,7</t>
+          <t>33,91; 50,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,37; 51,71</t>
+          <t>34,34; 54,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 42,27</t>
+          <t>39,67; 59,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,3; 51,84</t>
+          <t>28,96; 45,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,9; 53,38</t>
+          <t>34,06; 46,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,75; 50,81</t>
+          <t>39,32; 56,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,28; 48,82</t>
+          <t>34,8; 51,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,76; 52,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,55; 47,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,78; 53,12</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,0; 40,92</t>
+          <t>24,94; 49,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 28,9</t>
+          <t>11,9; 27,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 46,29</t>
+          <t>25,17; 46,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 33,15</t>
+          <t>17,54; 34,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,65; 49,44</t>
+          <t>13,17; 28,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,13; 33,3</t>
+          <t>28,85; 46,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,67; 34,87</t>
+          <t>22,82; 34,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 37,88</t>
+          <t>18,46; 34,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 36,04</t>
+          <t>21,38; 34,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,46; 35,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25,85; 37,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,69; 30,85</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 30,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 35,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 39,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,98; 31,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 26,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 37,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 29,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 29,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 36,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,09%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29,84%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,37; 52,83</t>
+          <t>17,66; 28,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,49; 41,42</t>
+          <t>22,5; 36,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,29; 44,7</t>
+          <t>28,27; 38,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,99; 47,52</t>
+          <t>24,19; 38,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,32; 49,2</t>
+          <t>20,31; 30,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 50,05</t>
+          <t>18,4; 27,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 48,28</t>
+          <t>28,75; 36,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,64; 44,27</t>
+          <t>25,01; 35,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,08; 45,86</t>
+          <t>20,46; 27,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 30,55</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 36,97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 34,6</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41,07%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,19%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 33,01</t>
+          <t>38,75; 52,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,84; 40,02</t>
+          <t>31,14; 44,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,55; 33,05</t>
+          <t>35,05; 45,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,29; 34,75</t>
+          <t>37,77; 50,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,16; 38,78</t>
+          <t>33,62; 45,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,61</t>
+          <t>38,99; 50,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,23; 32,45</t>
+          <t>40,66; 49,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,53; 37,94</t>
+          <t>42,59; 53,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,29; 27,85</t>
+          <t>37,83; 47,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37,09; 45,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 45,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,63; 50,34</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,85; 35,41</t>
+          <t>26,41; 38,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,65; 30,4</t>
+          <t>27,67; 40,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,59; 38,77</t>
+          <t>22,07; 32,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,15; 32,85</t>
+          <t>20,03; 31,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,74; 24,44</t>
+          <t>29,35; 41,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,25; 39,63</t>
+          <t>27,62; 37,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,87; 32,59</t>
+          <t>18,29; 26,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,08; 25,91</t>
+          <t>18,24; 28,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,85; 37,5</t>
+          <t>30,01; 38,54</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 37,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 27,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 28,3</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,0; 53,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>35,21; 48,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,83; 51,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,89; 51,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,25; 45,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,89; 52,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,46; 50,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,15; 45,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>42,91; 50,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21,38%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34,39%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,46; 28,57</t>
+          <t>21,49; 35,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28,15; 40,24</t>
+          <t>17,44; 28,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,3; 26,05</t>
+          <t>28,46; 39,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,47; 31,39</t>
+          <t>19,36; 35,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,12; 44,83</t>
+          <t>23,26; 36,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,12; 21,43</t>
+          <t>15,78; 24,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,36; 28,1</t>
+          <t>30,73; 39,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,43; 40,68</t>
+          <t>21,28; 30,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,48</t>
+          <t>24,83; 33,22</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 25,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30,62; 37,61</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 30,24</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>45,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>47,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42,64%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46,31%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>49,52%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,52; 29,35</t>
+          <t>39,88; 55,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,87; 31,36</t>
+          <t>37,48; 52,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>28,26; 35,13</t>
+          <t>39,96; 50,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,76; 30,9</t>
+          <t>44,35; 58,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,45</t>
+          <t>39,14; 52,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,12; 36,0</t>
+          <t>35,26; 46,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,45; 29,01</t>
+          <t>42,85; 51,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,46</t>
+          <t>41,55; 52,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,22; 34,62</t>
+          <t>42,0; 51,4</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>38,42; 47,17</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 50,06</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>44,8; 53,82</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>35,98%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,13; 51,18</t>
+          <t>18,45; 31,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>36,67; 45,28</t>
+          <t>27,08; 39,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,32; 45,42</t>
+          <t>16,02; 26,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>40,64; 47,06</t>
+          <t>17,65; 28,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,65; 44,5</t>
+          <t>19,14; 30,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,53; 48,56</t>
+          <t>33,71; 45,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>42,51; 47,88</t>
+          <t>14,16; 21,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>38,18; 43,78</t>
+          <t>22,36; 32,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>41,18; 46,09</t>
+          <t>20,33; 28,84</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>31,71; 40,24</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 23,19</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,68; 29,13</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28,13; 35,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>22,95; 30,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>33,51; 40,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,04; 24,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>31,74; 36,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,8; 32,88</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 37,32</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>20,87; 30,25</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 30,8</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 30,74</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 31,54</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>48,01%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,59%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>40,55%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>38,75%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>42,22; 54,76</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>29,32; 49,11</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>40,85; 51,65</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>32,5; 48,05</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>42,58; 51,24</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 45,53</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>35,32%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,89; 29,65</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 43,02</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,59; 34,05</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>29,18; 44,69</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,06; 30,1</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 41,23</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>31,71%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>32,42%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 29,87</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 31,24</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>28,59; 34,86</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 33,34</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>24,15; 29,84</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 25,42</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>30,77; 36,04</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 31,09</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 28,85</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>22,56; 27,32</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>30,41; 34,64</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>25,45; 30,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>45,98%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>42,31%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>47,17%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>44,28%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>44,84%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>47,71%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>41,37%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>47,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>42,26; 49,85</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 45,74</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>38,82; 45,68</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>42,63; 52,05</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>40,99; 47,38</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>38,64; 45,05</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 47,49</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>44,04; 51,2</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>42,71; 47,52</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>38,72; 44,02</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 45,92</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>44,53; 50,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>27,91%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>28,83%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 31,41</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 35,52</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>22,46; 30,09</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 28,28</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>26,0; 32,19</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>32,95; 39,1</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>19,58; 24,52</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 28,14</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>26,41; 30,58</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 36,34</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 26,22</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 27,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
